--- a/obecnosci_i_oceny.xlsx
+++ b/obecnosci_i_oceny.xlsx
@@ -5,17 +5,17 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/neegra/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/neegra/paradygmaty-programowania/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6F0CAC2D-7D70-A743-8245-4676B4213103}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2E1DE5B-F6C5-8A4E-B143-0FAF7F950CCB}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="280" yWindow="460" windowWidth="28240" windowHeight="17100" xr2:uid="{97166A3A-37EA-D446-B119-A32076EDFA0A}"/>
   </bookViews>
   <sheets>
     <sheet name="Arkusz1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="179017"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
   <si>
     <t>ALBUM</t>
   </si>
@@ -118,13 +118,34 @@
   </si>
   <si>
     <t>Maksymalna liczba punktów</t>
+  </si>
+  <si>
+    <t>Oceny</t>
+  </si>
+  <si>
+    <t>5.0</t>
+  </si>
+  <si>
+    <t>4.0</t>
+  </si>
+  <si>
+    <t>4.5</t>
+  </si>
+  <si>
+    <t>3.5</t>
+  </si>
+  <si>
+    <t>3.0</t>
+  </si>
+  <si>
+    <t>2.0</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -138,6 +159,14 @@
       <color rgb="FF000000"/>
       <name val="Helvetica Neue"/>
       <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="5">
@@ -166,7 +195,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="13">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -339,13 +368,37 @@
       <left style="medium">
         <color indexed="64"/>
       </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
+      <right/>
+      <top style="medium">
         <color indexed="64"/>
       </top>
       <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -354,7 +407,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -365,13 +418,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -380,35 +426,60 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="0" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="2" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="2" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="16" fontId="2" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normalny" xfId="0" builtinId="0"/>
@@ -723,10 +794,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE85A934-22F0-6A46-B4F6-DC7AC9601415}">
-  <dimension ref="A1:Q18"/>
+  <dimension ref="A1:Q35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L22" sqref="L22"/>
+      <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -736,55 +807,55 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="7">
+      <c r="B1" s="22">
         <v>43377</v>
       </c>
-      <c r="C1" s="7">
+      <c r="C1" s="22">
         <v>43384</v>
       </c>
-      <c r="D1" s="7">
+      <c r="D1" s="22">
         <v>43391</v>
       </c>
-      <c r="E1" s="8">
+      <c r="E1" s="23">
         <v>43398</v>
       </c>
-      <c r="F1" s="8">
+      <c r="F1" s="23">
         <v>43402</v>
       </c>
-      <c r="G1" s="8">
+      <c r="G1" s="23">
         <v>43412</v>
       </c>
-      <c r="H1" s="8">
+      <c r="H1" s="23">
         <v>43419</v>
       </c>
-      <c r="I1" s="8">
+      <c r="I1" s="23">
         <v>43426</v>
       </c>
-      <c r="J1" s="8">
+      <c r="J1" s="23">
         <v>43433</v>
       </c>
-      <c r="K1" s="8">
+      <c r="K1" s="23">
         <v>43440</v>
       </c>
-      <c r="L1" s="8">
+      <c r="L1" s="23">
         <v>43447</v>
       </c>
-      <c r="M1" s="8">
+      <c r="M1" s="23">
         <v>43454</v>
       </c>
-      <c r="N1" s="8">
+      <c r="N1" s="23">
         <v>43110</v>
       </c>
-      <c r="O1" s="8">
+      <c r="O1" s="23">
         <v>43117</v>
       </c>
-      <c r="P1" s="21">
+      <c r="P1" s="24">
         <v>43124</v>
       </c>
-      <c r="Q1" s="23" t="s">
+      <c r="Q1" s="25" t="s">
         <v>28</v>
       </c>
     </row>
@@ -806,8 +877,11 @@
       <c r="M2" s="1"/>
       <c r="N2" s="1"/>
       <c r="O2" s="1"/>
-      <c r="P2" s="22"/>
-      <c r="Q2" s="24"/>
+      <c r="P2" s="15"/>
+      <c r="Q2" s="16" t="str">
+        <f>LOOKUP((SUM(D2:O2)/SUM($D$18:$O$18))*10,$B$22:$B$27,$C$22:$C$27)</f>
+        <v>2.0</v>
+      </c>
     </row>
     <row r="3" spans="1:17">
       <c r="A3" s="2" t="s">
@@ -827,8 +901,11 @@
       <c r="M3" s="1"/>
       <c r="N3" s="1"/>
       <c r="O3" s="1"/>
-      <c r="P3" s="22"/>
-      <c r="Q3" s="24"/>
+      <c r="P3" s="15"/>
+      <c r="Q3" s="16" t="str">
+        <f t="shared" ref="Q3:Q16" si="0">LOOKUP((SUM(D3:O3)/SUM($D$18:$O$18))*10,$B$22:$B$27,$C$22:$C$27)</f>
+        <v>2.0</v>
+      </c>
     </row>
     <row r="4" spans="1:17">
       <c r="A4" s="2" t="s">
@@ -848,8 +925,11 @@
       <c r="M4" s="1"/>
       <c r="N4" s="1"/>
       <c r="O4" s="1"/>
-      <c r="P4" s="22"/>
-      <c r="Q4" s="24"/>
+      <c r="P4" s="15"/>
+      <c r="Q4" s="16" t="str">
+        <f t="shared" si="0"/>
+        <v>2.0</v>
+      </c>
     </row>
     <row r="5" spans="1:17">
       <c r="A5" s="2" t="s">
@@ -869,8 +949,11 @@
       <c r="M5" s="1"/>
       <c r="N5" s="1"/>
       <c r="O5" s="1"/>
-      <c r="P5" s="22"/>
-      <c r="Q5" s="24"/>
+      <c r="P5" s="15"/>
+      <c r="Q5" s="16" t="str">
+        <f t="shared" si="0"/>
+        <v>2.0</v>
+      </c>
     </row>
     <row r="6" spans="1:17">
       <c r="A6" s="2" t="s">
@@ -890,8 +973,11 @@
       <c r="M6" s="1"/>
       <c r="N6" s="1"/>
       <c r="O6" s="1"/>
-      <c r="P6" s="22"/>
-      <c r="Q6" s="24"/>
+      <c r="P6" s="15"/>
+      <c r="Q6" s="16" t="str">
+        <f t="shared" si="0"/>
+        <v>2.0</v>
+      </c>
     </row>
     <row r="7" spans="1:17">
       <c r="A7" s="2" t="s">
@@ -911,8 +997,11 @@
       <c r="M7" s="1"/>
       <c r="N7" s="1"/>
       <c r="O7" s="1"/>
-      <c r="P7" s="22"/>
-      <c r="Q7" s="24"/>
+      <c r="P7" s="15"/>
+      <c r="Q7" s="16" t="str">
+        <f t="shared" si="0"/>
+        <v>2.0</v>
+      </c>
     </row>
     <row r="8" spans="1:17">
       <c r="A8" s="2" t="s">
@@ -932,8 +1021,11 @@
       <c r="M8" s="1"/>
       <c r="N8" s="1"/>
       <c r="O8" s="1"/>
-      <c r="P8" s="22"/>
-      <c r="Q8" s="24"/>
+      <c r="P8" s="15"/>
+      <c r="Q8" s="16" t="str">
+        <f t="shared" si="0"/>
+        <v>2.0</v>
+      </c>
     </row>
     <row r="9" spans="1:17">
       <c r="A9" s="2" t="s">
@@ -953,8 +1045,11 @@
       <c r="M9" s="1"/>
       <c r="N9" s="1"/>
       <c r="O9" s="1"/>
-      <c r="P9" s="22"/>
-      <c r="Q9" s="24"/>
+      <c r="P9" s="15"/>
+      <c r="Q9" s="16" t="str">
+        <f t="shared" si="0"/>
+        <v>2.0</v>
+      </c>
     </row>
     <row r="10" spans="1:17">
       <c r="A10" s="2" t="s">
@@ -974,8 +1069,11 @@
       <c r="M10" s="1"/>
       <c r="N10" s="1"/>
       <c r="O10" s="1"/>
-      <c r="P10" s="22"/>
-      <c r="Q10" s="24"/>
+      <c r="P10" s="15"/>
+      <c r="Q10" s="16" t="str">
+        <f t="shared" si="0"/>
+        <v>2.0</v>
+      </c>
     </row>
     <row r="11" spans="1:17">
       <c r="A11" s="2" t="s">
@@ -995,8 +1093,11 @@
       <c r="M11" s="1"/>
       <c r="N11" s="1"/>
       <c r="O11" s="1"/>
-      <c r="P11" s="22"/>
-      <c r="Q11" s="24"/>
+      <c r="P11" s="15"/>
+      <c r="Q11" s="16" t="str">
+        <f t="shared" si="0"/>
+        <v>2.0</v>
+      </c>
     </row>
     <row r="12" spans="1:17">
       <c r="A12" s="2" t="s">
@@ -1016,8 +1117,11 @@
       <c r="M12" s="1"/>
       <c r="N12" s="1"/>
       <c r="O12" s="1"/>
-      <c r="P12" s="22"/>
-      <c r="Q12" s="24"/>
+      <c r="P12" s="15"/>
+      <c r="Q12" s="16" t="str">
+        <f t="shared" si="0"/>
+        <v>2.0</v>
+      </c>
     </row>
     <row r="13" spans="1:17">
       <c r="A13" s="2" t="s">
@@ -1037,8 +1141,11 @@
       <c r="M13" s="1"/>
       <c r="N13" s="1"/>
       <c r="O13" s="1"/>
-      <c r="P13" s="22"/>
-      <c r="Q13" s="24"/>
+      <c r="P13" s="15"/>
+      <c r="Q13" s="16" t="str">
+        <f t="shared" si="0"/>
+        <v>2.0</v>
+      </c>
     </row>
     <row r="14" spans="1:17">
       <c r="A14" s="2" t="s">
@@ -1058,8 +1165,11 @@
       <c r="M14" s="1"/>
       <c r="N14" s="1"/>
       <c r="O14" s="1"/>
-      <c r="P14" s="22"/>
-      <c r="Q14" s="24"/>
+      <c r="P14" s="15"/>
+      <c r="Q14" s="16" t="str">
+        <f t="shared" si="0"/>
+        <v>2.0</v>
+      </c>
     </row>
     <row r="15" spans="1:17">
       <c r="A15" s="2" t="s">
@@ -1079,120 +1189,209 @@
       <c r="M15" s="1"/>
       <c r="N15" s="1"/>
       <c r="O15" s="1"/>
-      <c r="P15" s="22"/>
-      <c r="Q15" s="24"/>
+      <c r="P15" s="15"/>
+      <c r="Q15" s="16" t="str">
+        <f t="shared" si="0"/>
+        <v>2.0</v>
+      </c>
     </row>
     <row r="16" spans="1:17" ht="17" thickBot="1">
-      <c r="A16" s="10" t="s">
+      <c r="A16" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="B16" s="11"/>
-      <c r="C16" s="11"/>
-      <c r="D16" s="9"/>
-      <c r="E16" s="9"/>
-      <c r="F16" s="9"/>
-      <c r="G16" s="9"/>
-      <c r="H16" s="9"/>
-      <c r="I16" s="9"/>
-      <c r="J16" s="9"/>
-      <c r="K16" s="9"/>
-      <c r="L16" s="9"/>
-      <c r="M16" s="9"/>
-      <c r="N16" s="9"/>
-      <c r="O16" s="9"/>
-      <c r="P16" s="22"/>
-      <c r="Q16" s="25"/>
+      <c r="B16" s="8"/>
+      <c r="C16" s="8"/>
+      <c r="D16" s="6"/>
+      <c r="E16" s="6"/>
+      <c r="F16" s="6"/>
+      <c r="G16" s="6"/>
+      <c r="H16" s="6"/>
+      <c r="I16" s="6"/>
+      <c r="J16" s="6"/>
+      <c r="K16" s="6"/>
+      <c r="L16" s="6"/>
+      <c r="M16" s="6"/>
+      <c r="N16" s="6"/>
+      <c r="O16" s="6"/>
+      <c r="P16" s="15"/>
+      <c r="Q16" s="16" t="str">
+        <f t="shared" si="0"/>
+        <v>2.0</v>
+      </c>
     </row>
     <row r="17" spans="1:15">
-      <c r="A17" s="12" t="s">
+      <c r="A17" s="19" t="s">
         <v>29</v>
       </c>
-      <c r="B17" s="12"/>
-      <c r="C17" s="14"/>
+      <c r="B17" s="19"/>
+      <c r="C17" s="20"/>
       <c r="D17" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="E17" s="16" t="s">
+      <c r="E17" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="F17" s="16" t="s">
+      <c r="F17" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="G17" s="16" t="s">
+      <c r="G17" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="H17" s="16" t="s">
+      <c r="H17" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="I17" s="16" t="s">
+      <c r="I17" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="J17" s="16" t="s">
+      <c r="J17" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="K17" s="16" t="s">
+      <c r="K17" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="L17" s="16" t="s">
+      <c r="L17" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="M17" s="16" t="s">
+      <c r="M17" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="N17" s="16" t="s">
+      <c r="N17" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="O17" s="17" t="s">
+      <c r="O17" s="11" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="18" spans="1:15" ht="17" thickBot="1">
-      <c r="A18" s="13" t="s">
+      <c r="A18" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="B18" s="13"/>
-      <c r="C18" s="15"/>
-      <c r="D18" s="18">
+      <c r="B18" s="17"/>
+      <c r="C18" s="18"/>
+      <c r="D18" s="12">
         <v>10</v>
       </c>
-      <c r="E18" s="19">
+      <c r="E18" s="13">
         <v>10</v>
       </c>
-      <c r="F18" s="19">
+      <c r="F18" s="13">
         <v>10</v>
       </c>
-      <c r="G18" s="19">
+      <c r="G18" s="13">
         <v>10</v>
       </c>
-      <c r="H18" s="19">
+      <c r="H18" s="13">
         <v>10</v>
       </c>
-      <c r="I18" s="19">
+      <c r="I18" s="13">
         <v>10</v>
       </c>
-      <c r="J18" s="19">
+      <c r="J18" s="13">
         <v>10</v>
       </c>
-      <c r="K18" s="19">
+      <c r="K18" s="13">
         <v>10</v>
       </c>
-      <c r="L18" s="19">
+      <c r="L18" s="13">
         <v>10</v>
       </c>
-      <c r="M18" s="19">
+      <c r="M18" s="13">
         <v>10</v>
       </c>
-      <c r="N18" s="19">
+      <c r="N18" s="13">
         <v>10</v>
       </c>
-      <c r="O18" s="20">
+      <c r="O18" s="14">
         <v>10</v>
       </c>
     </row>
+    <row r="20" spans="1:15" ht="17" thickBot="1"/>
+    <row r="21" spans="1:15" ht="17" thickBot="1">
+      <c r="B21" s="27" t="s">
+        <v>31</v>
+      </c>
+      <c r="C21" s="28"/>
+    </row>
+    <row r="22" spans="1:15">
+      <c r="B22" s="30">
+        <v>0</v>
+      </c>
+      <c r="C22" s="31" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15">
+      <c r="B23" s="9">
+        <v>51</v>
+      </c>
+      <c r="C23" s="29" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15">
+      <c r="B24" s="9">
+        <v>61</v>
+      </c>
+      <c r="C24" s="29" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15">
+      <c r="B25" s="9">
+        <v>71</v>
+      </c>
+      <c r="C25" s="29" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15">
+      <c r="B26" s="9">
+        <v>81</v>
+      </c>
+      <c r="C26" s="29" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15">
+      <c r="B27" s="9">
+        <v>91</v>
+      </c>
+      <c r="C27" s="29" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15">
+      <c r="C28" s="26"/>
+    </row>
+    <row r="29" spans="1:15">
+      <c r="C29" s="26"/>
+    </row>
+    <row r="30" spans="1:15">
+      <c r="C30" s="26"/>
+    </row>
+    <row r="31" spans="1:15">
+      <c r="C31" s="26"/>
+    </row>
+    <row r="32" spans="1:15">
+      <c r="C32" s="26"/>
+    </row>
+    <row r="33" spans="3:3">
+      <c r="C33" s="26"/>
+    </row>
+    <row r="34" spans="3:3">
+      <c r="C34" s="26"/>
+    </row>
+    <row r="35" spans="3:3">
+      <c r="C35" s="26"/>
+    </row>
   </sheetData>
-  <mergeCells count="2">
+  <sortState ref="B22:C27">
+    <sortCondition ref="B22:B27"/>
+  </sortState>
+  <mergeCells count="3">
     <mergeCell ref="A18:C18"/>
     <mergeCell ref="A17:C17"/>
+    <mergeCell ref="B21:C21"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>

--- a/obecnosci_i_oceny.xlsx
+++ b/obecnosci_i_oceny.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/neegra/paradygmaty-programowania/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2E1DE5B-F6C5-8A4E-B143-0FAF7F950CCB}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FA43A5F-98FB-AF47-80F4-14EA97676B25}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="280" yWindow="460" windowWidth="28240" windowHeight="17100" xr2:uid="{97166A3A-37EA-D446-B119-A32076EDFA0A}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="43">
   <si>
     <t>ALBUM</t>
   </si>
@@ -139,13 +139,28 @@
   </si>
   <si>
     <t>2.0</t>
+  </si>
+  <si>
+    <t>LEGENDA</t>
+  </si>
+  <si>
+    <t>nieobecność</t>
+  </si>
+  <si>
+    <t>nieobecność usprawiedliwiona</t>
+  </si>
+  <si>
+    <t>obecność</t>
+  </si>
+  <si>
+    <t>obecność bez wysłanej listy po laboratoriach</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3">
+  <fonts count="5">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -168,8 +183,24 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="6"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="9"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -194,8 +225,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="15">
+  <borders count="16">
     <border>
       <left/>
       <right/>
@@ -403,11 +446,26 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -443,18 +501,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -465,21 +511,39 @@
     <xf numFmtId="16" fontId="2" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normalny" xfId="0" builtinId="0"/>
@@ -797,7 +861,7 @@
   <dimension ref="A1:Q35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E25" sqref="E25"/>
+      <selection activeCell="G32" sqref="G32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -807,55 +871,55 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="22">
+      <c r="B1" s="18">
         <v>43377</v>
       </c>
-      <c r="C1" s="22">
+      <c r="C1" s="18">
         <v>43384</v>
       </c>
-      <c r="D1" s="22">
+      <c r="D1" s="18">
         <v>43391</v>
       </c>
-      <c r="E1" s="23">
+      <c r="E1" s="19">
         <v>43398</v>
       </c>
-      <c r="F1" s="23">
+      <c r="F1" s="19">
         <v>43402</v>
       </c>
-      <c r="G1" s="23">
+      <c r="G1" s="19">
         <v>43412</v>
       </c>
-      <c r="H1" s="23">
+      <c r="H1" s="19">
         <v>43419</v>
       </c>
-      <c r="I1" s="23">
+      <c r="I1" s="19">
         <v>43426</v>
       </c>
-      <c r="J1" s="23">
+      <c r="J1" s="19">
         <v>43433</v>
       </c>
-      <c r="K1" s="23">
+      <c r="K1" s="19">
         <v>43440</v>
       </c>
-      <c r="L1" s="23">
+      <c r="L1" s="19">
         <v>43447</v>
       </c>
-      <c r="M1" s="23">
+      <c r="M1" s="19">
         <v>43454</v>
       </c>
-      <c r="N1" s="23">
+      <c r="N1" s="19">
         <v>43110</v>
       </c>
-      <c r="O1" s="23">
+      <c r="O1" s="19">
         <v>43117</v>
       </c>
-      <c r="P1" s="24">
+      <c r="P1" s="20">
         <v>43124</v>
       </c>
-      <c r="Q1" s="25" t="s">
+      <c r="Q1" s="21" t="s">
         <v>28</v>
       </c>
     </row>
@@ -865,7 +929,7 @@
       </c>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
-      <c r="D2" s="1"/>
+      <c r="D2" s="32"/>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
@@ -879,7 +943,7 @@
       <c r="O2" s="1"/>
       <c r="P2" s="15"/>
       <c r="Q2" s="16" t="str">
-        <f>LOOKUP((SUM(D2:O2)/SUM($D$18:$O$18))*10,$B$22:$B$27,$C$22:$C$27)</f>
+        <f>LOOKUP((SUM(D2:O2)/SUM($D$18:$O$18))*100,$B$22:$B$27,$C$22:$C$27)</f>
         <v>2.0</v>
       </c>
     </row>
@@ -889,7 +953,9 @@
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3"/>
-      <c r="D3" s="1"/>
+      <c r="D3" s="3">
+        <v>2</v>
+      </c>
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
@@ -903,7 +969,7 @@
       <c r="O3" s="1"/>
       <c r="P3" s="15"/>
       <c r="Q3" s="16" t="str">
-        <f t="shared" ref="Q3:Q16" si="0">LOOKUP((SUM(D3:O3)/SUM($D$18:$O$18))*10,$B$22:$B$27,$C$22:$C$27)</f>
+        <f>LOOKUP((SUM(D3:O3)/SUM($D$18:$O$18))*10,$B$22:$B$27,$C$22:$C$27)</f>
         <v>2.0</v>
       </c>
     </row>
@@ -913,7 +979,9 @@
       </c>
       <c r="B4" s="3"/>
       <c r="C4" s="3"/>
-      <c r="D4" s="1"/>
+      <c r="D4" s="3">
+        <v>2</v>
+      </c>
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
@@ -927,7 +995,7 @@
       <c r="O4" s="1"/>
       <c r="P4" s="15"/>
       <c r="Q4" s="16" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="Q3:Q7" si="0">LOOKUP((SUM(D4:O4)/SUM($D$18:$O$18))*10,$B$22:$B$27,$C$22:$C$27)</f>
         <v>2.0</v>
       </c>
     </row>
@@ -937,7 +1005,7 @@
       </c>
       <c r="B5" s="3"/>
       <c r="C5" s="3"/>
-      <c r="D5" s="1"/>
+      <c r="D5" s="3"/>
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
@@ -961,7 +1029,7 @@
       </c>
       <c r="B6" s="3"/>
       <c r="C6" s="3"/>
-      <c r="D6" s="1"/>
+      <c r="D6" s="3"/>
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
       <c r="G6" s="1"/>
@@ -985,7 +1053,7 @@
       </c>
       <c r="B7" s="4"/>
       <c r="C7" s="3"/>
-      <c r="D7" s="1"/>
+      <c r="D7" s="4"/>
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
@@ -1009,7 +1077,9 @@
       </c>
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>
-      <c r="D8" s="1"/>
+      <c r="D8" s="3">
+        <v>2</v>
+      </c>
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
@@ -1023,7 +1093,7 @@
       <c r="O8" s="1"/>
       <c r="P8" s="15"/>
       <c r="Q8" s="16" t="str">
-        <f t="shared" si="0"/>
+        <f>LOOKUP((SUM(D8:O8)/SUM($D$18:$O$18))*10,$B$22:$B$27,$C$22:$C$27)</f>
         <v>2.0</v>
       </c>
     </row>
@@ -1033,7 +1103,7 @@
       </c>
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
-      <c r="D9" s="1"/>
+      <c r="D9" s="3"/>
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>
@@ -1047,7 +1117,7 @@
       <c r="O9" s="1"/>
       <c r="P9" s="15"/>
       <c r="Q9" s="16" t="str">
-        <f t="shared" si="0"/>
+        <f>LOOKUP((SUM(D9:O9)/SUM($D$18:$O$18))*10,$B$22:$B$27,$C$22:$C$27)</f>
         <v>2.0</v>
       </c>
     </row>
@@ -1057,7 +1127,7 @@
       </c>
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
-      <c r="D10" s="1"/>
+      <c r="D10" s="3"/>
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
       <c r="G10" s="1"/>
@@ -1071,7 +1141,7 @@
       <c r="O10" s="1"/>
       <c r="P10" s="15"/>
       <c r="Q10" s="16" t="str">
-        <f t="shared" si="0"/>
+        <f>LOOKUP((SUM(D10:O10)/SUM($D$18:$O$18))*10,$B$22:$B$27,$C$22:$C$27)</f>
         <v>2.0</v>
       </c>
     </row>
@@ -1081,7 +1151,7 @@
       </c>
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
-      <c r="D11" s="1"/>
+      <c r="D11" s="3"/>
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
       <c r="G11" s="1"/>
@@ -1095,7 +1165,7 @@
       <c r="O11" s="1"/>
       <c r="P11" s="15"/>
       <c r="Q11" s="16" t="str">
-        <f t="shared" si="0"/>
+        <f>LOOKUP((SUM(D11:O11)/SUM($D$18:$O$18))*10,$B$22:$B$27,$C$22:$C$27)</f>
         <v>2.0</v>
       </c>
     </row>
@@ -1105,7 +1175,7 @@
       </c>
       <c r="B12" s="3"/>
       <c r="C12" s="3"/>
-      <c r="D12" s="1"/>
+      <c r="D12" s="3"/>
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
       <c r="G12" s="1"/>
@@ -1119,7 +1189,7 @@
       <c r="O12" s="1"/>
       <c r="P12" s="15"/>
       <c r="Q12" s="16" t="str">
-        <f t="shared" si="0"/>
+        <f>LOOKUP((SUM(D12:O12)/SUM($D$18:$O$18))*10,$B$22:$B$27,$C$22:$C$27)</f>
         <v>2.0</v>
       </c>
     </row>
@@ -1129,7 +1199,9 @@
       </c>
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
-      <c r="D13" s="1"/>
+      <c r="D13" s="3">
+        <v>2</v>
+      </c>
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
       <c r="G13" s="1"/>
@@ -1143,7 +1215,7 @@
       <c r="O13" s="1"/>
       <c r="P13" s="15"/>
       <c r="Q13" s="16" t="str">
-        <f t="shared" si="0"/>
+        <f>LOOKUP((SUM(D13:O13)/SUM($D$18:$O$18))*10,$B$22:$B$27,$C$22:$C$27)</f>
         <v>2.0</v>
       </c>
     </row>
@@ -1153,7 +1225,7 @@
       </c>
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
-      <c r="D14" s="1"/>
+      <c r="D14" s="3"/>
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
       <c r="G14" s="1"/>
@@ -1167,7 +1239,7 @@
       <c r="O14" s="1"/>
       <c r="P14" s="15"/>
       <c r="Q14" s="16" t="str">
-        <f t="shared" si="0"/>
+        <f>LOOKUP((SUM(D14:O14)/SUM($D$18:$O$18))*10,$B$22:$B$27,$C$22:$C$27)</f>
         <v>2.0</v>
       </c>
     </row>
@@ -1177,7 +1249,7 @@
       </c>
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
-      <c r="D15" s="1"/>
+      <c r="D15" s="3"/>
       <c r="E15" s="1"/>
       <c r="F15" s="1"/>
       <c r="G15" s="1"/>
@@ -1191,7 +1263,7 @@
       <c r="O15" s="1"/>
       <c r="P15" s="15"/>
       <c r="Q15" s="16" t="str">
-        <f t="shared" si="0"/>
+        <f>LOOKUP((SUM(D15:O15)/SUM($D$18:$O$18))*10,$B$22:$B$27,$C$22:$C$27)</f>
         <v>2.0</v>
       </c>
     </row>
@@ -1200,8 +1272,10 @@
         <v>15</v>
       </c>
       <c r="B16" s="8"/>
-      <c r="C16" s="8"/>
-      <c r="D16" s="6"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="3">
+        <v>2</v>
+      </c>
       <c r="E16" s="6"/>
       <c r="F16" s="6"/>
       <c r="G16" s="6"/>
@@ -1215,16 +1289,16 @@
       <c r="O16" s="6"/>
       <c r="P16" s="15"/>
       <c r="Q16" s="16" t="str">
-        <f t="shared" si="0"/>
+        <f>LOOKUP((SUM(D16:O16)/SUM($D$18:$O$18))*10,$B$22:$B$27,$C$22:$C$27)</f>
         <v>2.0</v>
       </c>
     </row>
     <row r="17" spans="1:15">
-      <c r="A17" s="19" t="s">
+      <c r="A17" s="28" t="s">
         <v>29</v>
       </c>
-      <c r="B17" s="19"/>
-      <c r="C17" s="20"/>
+      <c r="B17" s="28"/>
+      <c r="C17" s="29"/>
       <c r="D17" s="5" t="s">
         <v>16</v>
       </c>
@@ -1263,11 +1337,11 @@
       </c>
     </row>
     <row r="18" spans="1:15" ht="17" thickBot="1">
-      <c r="A18" s="17" t="s">
+      <c r="A18" s="26" t="s">
         <v>30</v>
       </c>
-      <c r="B18" s="17"/>
-      <c r="C18" s="18"/>
+      <c r="B18" s="26"/>
+      <c r="C18" s="27"/>
       <c r="D18" s="12">
         <v>10</v>
       </c>
@@ -1307,48 +1381,67 @@
     </row>
     <row r="20" spans="1:15" ht="17" thickBot="1"/>
     <row r="21" spans="1:15" ht="17" thickBot="1">
-      <c r="B21" s="27" t="s">
+      <c r="B21" s="30" t="s">
         <v>31</v>
       </c>
-      <c r="C21" s="28"/>
+      <c r="C21" s="31"/>
+      <c r="E21" s="37" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="22" spans="1:15">
-      <c r="B22" s="30">
+      <c r="B22" s="24">
         <v>0</v>
       </c>
-      <c r="C22" s="31" t="s">
+      <c r="C22" s="25" t="s">
         <v>37</v>
+      </c>
+      <c r="E22" s="36"/>
+      <c r="F22" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="23" spans="1:15">
       <c r="B23" s="9">
         <v>51</v>
       </c>
-      <c r="C23" s="29" t="s">
+      <c r="C23" s="23" t="s">
         <v>36</v>
+      </c>
+      <c r="E23" s="33"/>
+      <c r="F23" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="24" spans="1:15">
       <c r="B24" s="9">
         <v>61</v>
       </c>
-      <c r="C24" s="29" t="s">
+      <c r="C24" s="23" t="s">
         <v>35</v>
+      </c>
+      <c r="E24" s="34"/>
+      <c r="F24" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="25" spans="1:15">
       <c r="B25" s="9">
         <v>71</v>
       </c>
-      <c r="C25" s="29" t="s">
+      <c r="C25" s="23" t="s">
         <v>33</v>
+      </c>
+      <c r="E25" s="35"/>
+      <c r="F25" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="26" spans="1:15">
       <c r="B26" s="9">
         <v>81</v>
       </c>
-      <c r="C26" s="29" t="s">
+      <c r="C26" s="23" t="s">
         <v>34</v>
       </c>
     </row>
@@ -1356,33 +1449,33 @@
       <c r="B27" s="9">
         <v>91</v>
       </c>
-      <c r="C27" s="29" t="s">
+      <c r="C27" s="23" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="28" spans="1:15">
-      <c r="C28" s="26"/>
+      <c r="C28" s="22"/>
     </row>
     <row r="29" spans="1:15">
-      <c r="C29" s="26"/>
+      <c r="C29" s="22"/>
     </row>
     <row r="30" spans="1:15">
-      <c r="C30" s="26"/>
+      <c r="C30" s="22"/>
     </row>
     <row r="31" spans="1:15">
-      <c r="C31" s="26"/>
+      <c r="C31" s="22"/>
     </row>
     <row r="32" spans="1:15">
-      <c r="C32" s="26"/>
+      <c r="C32" s="22"/>
     </row>
     <row r="33" spans="3:3">
-      <c r="C33" s="26"/>
+      <c r="C33" s="22"/>
     </row>
     <row r="34" spans="3:3">
-      <c r="C34" s="26"/>
+      <c r="C34" s="22"/>
     </row>
     <row r="35" spans="3:3">
-      <c r="C35" s="26"/>
+      <c r="C35" s="22"/>
     </row>
   </sheetData>
   <sortState ref="B22:C27">

--- a/obecnosci_i_oceny.xlsx
+++ b/obecnosci_i_oceny.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/neegra/paradygmaty-programowania/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FA43A5F-98FB-AF47-80F4-14EA97676B25}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5AAEFD5E-1D16-664F-B6FC-8582C30B69B5}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="280" yWindow="460" windowWidth="28240" windowHeight="17100" xr2:uid="{97166A3A-37EA-D446-B119-A32076EDFA0A}"/>
   </bookViews>
@@ -120,9 +120,6 @@
     <t>Maksymalna liczba punktów</t>
   </si>
   <si>
-    <t>Oceny</t>
-  </si>
-  <si>
     <t>5.0</t>
   </si>
   <si>
@@ -154,6 +151,9 @@
   </si>
   <si>
     <t>obecność bez wysłanej listy po laboratoriach</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Oceny </t>
   </si>
 </sst>
 </file>
@@ -185,7 +185,7 @@
     </font>
     <font>
       <sz val="12"/>
-      <color theme="6"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="238"/>
@@ -462,10 +462,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -481,9 +482,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -514,9 +512,6 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -538,15 +533,25 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normalny" xfId="0" builtinId="0"/>
+    <cellStyle name="Procentowy" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -861,7 +866,7 @@
   <dimension ref="A1:Q35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G32" sqref="G32"/>
+      <selection activeCell="Q7" sqref="Q7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -871,55 +876,55 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="18">
+      <c r="B1" s="17">
         <v>43377</v>
       </c>
-      <c r="C1" s="18">
+      <c r="C1" s="17">
         <v>43384</v>
       </c>
-      <c r="D1" s="18">
+      <c r="D1" s="17">
         <v>43391</v>
       </c>
-      <c r="E1" s="19">
+      <c r="E1" s="18">
         <v>43398</v>
       </c>
-      <c r="F1" s="19">
+      <c r="F1" s="18">
         <v>43402</v>
       </c>
-      <c r="G1" s="19">
+      <c r="G1" s="18">
         <v>43412</v>
       </c>
-      <c r="H1" s="19">
+      <c r="H1" s="18">
         <v>43419</v>
       </c>
-      <c r="I1" s="19">
+      <c r="I1" s="18">
         <v>43426</v>
       </c>
-      <c r="J1" s="19">
+      <c r="J1" s="18">
         <v>43433</v>
       </c>
-      <c r="K1" s="19">
+      <c r="K1" s="18">
         <v>43440</v>
       </c>
-      <c r="L1" s="19">
+      <c r="L1" s="18">
         <v>43447</v>
       </c>
-      <c r="M1" s="19">
+      <c r="M1" s="18">
         <v>43454</v>
       </c>
-      <c r="N1" s="19">
+      <c r="N1" s="18">
         <v>43110</v>
       </c>
-      <c r="O1" s="19">
+      <c r="O1" s="18">
         <v>43117</v>
       </c>
-      <c r="P1" s="20">
+      <c r="P1" s="19">
         <v>43124</v>
       </c>
-      <c r="Q1" s="21" t="s">
+      <c r="Q1" s="20" t="s">
         <v>28</v>
       </c>
     </row>
@@ -929,7 +934,7 @@
       </c>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
-      <c r="D2" s="32"/>
+      <c r="D2" s="35"/>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
@@ -941,9 +946,9 @@
       <c r="M2" s="1"/>
       <c r="N2" s="1"/>
       <c r="O2" s="1"/>
-      <c r="P2" s="15"/>
-      <c r="Q2" s="16" t="str">
-        <f>LOOKUP((SUM(D2:O2)/SUM($D$18:$O$18))*100,$B$22:$B$27,$C$22:$C$27)</f>
+      <c r="P2" s="14"/>
+      <c r="Q2" s="15" t="str">
+        <f>LOOKUP((SUM(D2:O2)/SUM($D$18:$O$18)),$B$22:$B$27,$C$22:$C$27)</f>
         <v>2.0</v>
       </c>
     </row>
@@ -967,9 +972,9 @@
       <c r="M3" s="1"/>
       <c r="N3" s="1"/>
       <c r="O3" s="1"/>
-      <c r="P3" s="15"/>
-      <c r="Q3" s="16" t="str">
-        <f>LOOKUP((SUM(D3:O3)/SUM($D$18:$O$18))*10,$B$22:$B$27,$C$22:$C$27)</f>
+      <c r="P3" s="14"/>
+      <c r="Q3" s="15" t="str">
+        <f t="shared" ref="Q3:Q16" si="0">LOOKUP((SUM(D3:O3)/SUM($D$18:$O$18)),$B$22:$B$27,$C$22:$C$27)</f>
         <v>2.0</v>
       </c>
     </row>
@@ -993,9 +998,9 @@
       <c r="M4" s="1"/>
       <c r="N4" s="1"/>
       <c r="O4" s="1"/>
-      <c r="P4" s="15"/>
-      <c r="Q4" s="16" t="str">
-        <f t="shared" ref="Q3:Q7" si="0">LOOKUP((SUM(D4:O4)/SUM($D$18:$O$18))*10,$B$22:$B$27,$C$22:$C$27)</f>
+      <c r="P4" s="14"/>
+      <c r="Q4" s="15" t="str">
+        <f>LOOKUP((SUM(D4:O4)/SUM($D$18:$O$18)),$B$22:$B$27,$C$22:$C$27)</f>
         <v>2.0</v>
       </c>
     </row>
@@ -1017,8 +1022,8 @@
       <c r="M5" s="1"/>
       <c r="N5" s="1"/>
       <c r="O5" s="1"/>
-      <c r="P5" s="15"/>
-      <c r="Q5" s="16" t="str">
+      <c r="P5" s="14"/>
+      <c r="Q5" s="15" t="str">
         <f t="shared" si="0"/>
         <v>2.0</v>
       </c>
@@ -1041,8 +1046,8 @@
       <c r="M6" s="1"/>
       <c r="N6" s="1"/>
       <c r="O6" s="1"/>
-      <c r="P6" s="15"/>
-      <c r="Q6" s="16" t="str">
+      <c r="P6" s="14"/>
+      <c r="Q6" s="15" t="str">
         <f t="shared" si="0"/>
         <v>2.0</v>
       </c>
@@ -1065,8 +1070,8 @@
       <c r="M7" s="1"/>
       <c r="N7" s="1"/>
       <c r="O7" s="1"/>
-      <c r="P7" s="15"/>
-      <c r="Q7" s="16" t="str">
+      <c r="P7" s="14"/>
+      <c r="Q7" s="15" t="str">
         <f t="shared" si="0"/>
         <v>2.0</v>
       </c>
@@ -1091,9 +1096,9 @@
       <c r="M8" s="1"/>
       <c r="N8" s="1"/>
       <c r="O8" s="1"/>
-      <c r="P8" s="15"/>
-      <c r="Q8" s="16" t="str">
-        <f>LOOKUP((SUM(D8:O8)/SUM($D$18:$O$18))*10,$B$22:$B$27,$C$22:$C$27)</f>
+      <c r="P8" s="14"/>
+      <c r="Q8" s="15" t="str">
+        <f t="shared" si="0"/>
         <v>2.0</v>
       </c>
     </row>
@@ -1115,9 +1120,9 @@
       <c r="M9" s="1"/>
       <c r="N9" s="1"/>
       <c r="O9" s="1"/>
-      <c r="P9" s="15"/>
-      <c r="Q9" s="16" t="str">
-        <f>LOOKUP((SUM(D9:O9)/SUM($D$18:$O$18))*10,$B$22:$B$27,$C$22:$C$27)</f>
+      <c r="P9" s="14"/>
+      <c r="Q9" s="15" t="str">
+        <f t="shared" si="0"/>
         <v>2.0</v>
       </c>
     </row>
@@ -1139,9 +1144,9 @@
       <c r="M10" s="1"/>
       <c r="N10" s="1"/>
       <c r="O10" s="1"/>
-      <c r="P10" s="15"/>
-      <c r="Q10" s="16" t="str">
-        <f>LOOKUP((SUM(D10:O10)/SUM($D$18:$O$18))*10,$B$22:$B$27,$C$22:$C$27)</f>
+      <c r="P10" s="14"/>
+      <c r="Q10" s="15" t="str">
+        <f t="shared" si="0"/>
         <v>2.0</v>
       </c>
     </row>
@@ -1163,9 +1168,9 @@
       <c r="M11" s="1"/>
       <c r="N11" s="1"/>
       <c r="O11" s="1"/>
-      <c r="P11" s="15"/>
-      <c r="Q11" s="16" t="str">
-        <f>LOOKUP((SUM(D11:O11)/SUM($D$18:$O$18))*10,$B$22:$B$27,$C$22:$C$27)</f>
+      <c r="P11" s="14"/>
+      <c r="Q11" s="15" t="str">
+        <f t="shared" si="0"/>
         <v>2.0</v>
       </c>
     </row>
@@ -1187,9 +1192,9 @@
       <c r="M12" s="1"/>
       <c r="N12" s="1"/>
       <c r="O12" s="1"/>
-      <c r="P12" s="15"/>
-      <c r="Q12" s="16" t="str">
-        <f>LOOKUP((SUM(D12:O12)/SUM($D$18:$O$18))*10,$B$22:$B$27,$C$22:$C$27)</f>
+      <c r="P12" s="14"/>
+      <c r="Q12" s="15" t="str">
+        <f t="shared" si="0"/>
         <v>2.0</v>
       </c>
     </row>
@@ -1213,9 +1218,9 @@
       <c r="M13" s="1"/>
       <c r="N13" s="1"/>
       <c r="O13" s="1"/>
-      <c r="P13" s="15"/>
-      <c r="Q13" s="16" t="str">
-        <f>LOOKUP((SUM(D13:O13)/SUM($D$18:$O$18))*10,$B$22:$B$27,$C$22:$C$27)</f>
+      <c r="P13" s="14"/>
+      <c r="Q13" s="15" t="str">
+        <f t="shared" si="0"/>
         <v>2.0</v>
       </c>
     </row>
@@ -1237,9 +1242,9 @@
       <c r="M14" s="1"/>
       <c r="N14" s="1"/>
       <c r="O14" s="1"/>
-      <c r="P14" s="15"/>
-      <c r="Q14" s="16" t="str">
-        <f>LOOKUP((SUM(D14:O14)/SUM($D$18:$O$18))*10,$B$22:$B$27,$C$22:$C$27)</f>
+      <c r="P14" s="14"/>
+      <c r="Q14" s="15" t="str">
+        <f t="shared" si="0"/>
         <v>2.0</v>
       </c>
     </row>
@@ -1261,9 +1266,9 @@
       <c r="M15" s="1"/>
       <c r="N15" s="1"/>
       <c r="O15" s="1"/>
-      <c r="P15" s="15"/>
-      <c r="Q15" s="16" t="str">
-        <f>LOOKUP((SUM(D15:O15)/SUM($D$18:$O$18))*10,$B$22:$B$27,$C$22:$C$27)</f>
+      <c r="P15" s="14"/>
+      <c r="Q15" s="15" t="str">
+        <f t="shared" si="0"/>
         <v>2.0</v>
       </c>
     </row>
@@ -1287,195 +1292,196 @@
       <c r="M16" s="6"/>
       <c r="N16" s="6"/>
       <c r="O16" s="6"/>
-      <c r="P16" s="15"/>
-      <c r="Q16" s="16" t="str">
-        <f>LOOKUP((SUM(D16:O16)/SUM($D$18:$O$18))*10,$B$22:$B$27,$C$22:$C$27)</f>
+      <c r="P16" s="14"/>
+      <c r="Q16" s="15" t="str">
+        <f t="shared" si="0"/>
         <v>2.0</v>
       </c>
     </row>
     <row r="17" spans="1:15">
-      <c r="A17" s="28" t="s">
+      <c r="A17" s="26" t="s">
         <v>29</v>
       </c>
-      <c r="B17" s="28"/>
-      <c r="C17" s="29"/>
+      <c r="B17" s="26"/>
+      <c r="C17" s="27"/>
       <c r="D17" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="E17" s="10" t="s">
+      <c r="E17" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="F17" s="10" t="s">
+      <c r="F17" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="G17" s="10" t="s">
+      <c r="G17" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="H17" s="10" t="s">
+      <c r="H17" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="I17" s="10" t="s">
+      <c r="I17" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="J17" s="10" t="s">
+      <c r="J17" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="K17" s="10" t="s">
+      <c r="K17" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="L17" s="10" t="s">
+      <c r="L17" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="M17" s="10" t="s">
+      <c r="M17" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="N17" s="10" t="s">
+      <c r="N17" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="O17" s="11" t="s">
+      <c r="O17" s="10" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="18" spans="1:15" ht="17" thickBot="1">
-      <c r="A18" s="26" t="s">
+      <c r="A18" s="24" t="s">
         <v>30</v>
       </c>
-      <c r="B18" s="26"/>
-      <c r="C18" s="27"/>
-      <c r="D18" s="12">
+      <c r="B18" s="24"/>
+      <c r="C18" s="25"/>
+      <c r="D18" s="11">
         <v>10</v>
       </c>
-      <c r="E18" s="13">
+      <c r="E18" s="12">
         <v>10</v>
       </c>
-      <c r="F18" s="13">
+      <c r="F18" s="12">
         <v>10</v>
       </c>
-      <c r="G18" s="13">
+      <c r="G18" s="12">
         <v>10</v>
       </c>
-      <c r="H18" s="13">
+      <c r="H18" s="12">
         <v>10</v>
       </c>
-      <c r="I18" s="13">
+      <c r="I18" s="12">
         <v>10</v>
       </c>
-      <c r="J18" s="13">
+      <c r="J18" s="12">
         <v>10</v>
       </c>
-      <c r="K18" s="13">
+      <c r="K18" s="12">
         <v>10</v>
       </c>
-      <c r="L18" s="13">
+      <c r="L18" s="12">
         <v>10</v>
       </c>
-      <c r="M18" s="13">
+      <c r="M18" s="12">
         <v>10</v>
       </c>
-      <c r="N18" s="13">
+      <c r="N18" s="12">
         <v>10</v>
       </c>
-      <c r="O18" s="14">
+      <c r="O18" s="13">
         <v>10</v>
       </c>
     </row>
     <row r="20" spans="1:15" ht="17" thickBot="1"/>
     <row r="21" spans="1:15" ht="17" thickBot="1">
-      <c r="B21" s="30" t="s">
+      <c r="B21" s="28" t="s">
+        <v>42</v>
+      </c>
+      <c r="C21" s="29"/>
+      <c r="E21" s="34" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15">
+      <c r="B22" s="37">
+        <v>0</v>
+      </c>
+      <c r="C22" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="E22" s="33"/>
+      <c r="F22" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15">
+      <c r="B23" s="38">
+        <v>0.51</v>
+      </c>
+      <c r="C23" s="22" t="s">
+        <v>35</v>
+      </c>
+      <c r="E23" s="30"/>
+      <c r="F23" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15">
+      <c r="B24" s="38">
+        <v>0.61</v>
+      </c>
+      <c r="C24" s="22" t="s">
+        <v>34</v>
+      </c>
+      <c r="E24" s="31"/>
+      <c r="F24" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15">
+      <c r="B25" s="38">
+        <v>0.71</v>
+      </c>
+      <c r="C25" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="E25" s="32"/>
+      <c r="F25" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15">
+      <c r="B26" s="38">
+        <v>0.81</v>
+      </c>
+      <c r="C26" s="22" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15">
+      <c r="B27" s="38">
+        <v>0.91</v>
+      </c>
+      <c r="C27" s="22" t="s">
         <v>31</v>
       </c>
-      <c r="C21" s="31"/>
-      <c r="E21" s="37" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15">
-      <c r="B22" s="24">
-        <v>0</v>
-      </c>
-      <c r="C22" s="25" t="s">
-        <v>37</v>
-      </c>
-      <c r="E22" s="36"/>
-      <c r="F22" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15">
-      <c r="B23" s="9">
-        <v>51</v>
-      </c>
-      <c r="C23" s="23" t="s">
-        <v>36</v>
-      </c>
-      <c r="E23" s="33"/>
-      <c r="F23" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15">
-      <c r="B24" s="9">
-        <v>61</v>
-      </c>
-      <c r="C24" s="23" t="s">
-        <v>35</v>
-      </c>
-      <c r="E24" s="34"/>
-      <c r="F24" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15">
-      <c r="B25" s="9">
-        <v>71</v>
-      </c>
-      <c r="C25" s="23" t="s">
-        <v>33</v>
-      </c>
-      <c r="E25" s="35"/>
-      <c r="F25" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="26" spans="1:15">
-      <c r="B26" s="9">
-        <v>81</v>
-      </c>
-      <c r="C26" s="23" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="27" spans="1:15">
-      <c r="B27" s="9">
-        <v>91</v>
-      </c>
-      <c r="C27" s="23" t="s">
-        <v>32</v>
-      </c>
     </row>
     <row r="28" spans="1:15">
-      <c r="C28" s="22"/>
+      <c r="B28" s="36"/>
+      <c r="C28" s="21"/>
     </row>
     <row r="29" spans="1:15">
-      <c r="C29" s="22"/>
+      <c r="C29" s="21"/>
     </row>
     <row r="30" spans="1:15">
-      <c r="C30" s="22"/>
+      <c r="C30" s="21"/>
     </row>
     <row r="31" spans="1:15">
-      <c r="C31" s="22"/>
+      <c r="C31" s="21"/>
     </row>
     <row r="32" spans="1:15">
-      <c r="C32" s="22"/>
+      <c r="C32" s="21"/>
     </row>
     <row r="33" spans="3:3">
-      <c r="C33" s="22"/>
+      <c r="C33" s="21"/>
     </row>
     <row r="34" spans="3:3">
-      <c r="C34" s="22"/>
+      <c r="C34" s="21"/>
     </row>
     <row r="35" spans="3:3">
-      <c r="C35" s="22"/>
+      <c r="C35" s="21"/>
     </row>
   </sheetData>
   <sortState ref="B22:C27">

--- a/obecnosci_i_oceny.xlsx
+++ b/obecnosci_i_oceny.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/neegra/paradygmaty-programowania/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5AAEFD5E-1D16-664F-B6FC-8582C30B69B5}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{690713BA-B6BD-A343-857E-BF2E36ED8CAA}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="280" yWindow="460" windowWidth="28240" windowHeight="17100" xr2:uid="{97166A3A-37EA-D446-B119-A32076EDFA0A}"/>
   </bookViews>
@@ -866,7 +866,7 @@
   <dimension ref="A1:Q35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q7" sqref="Q7"/>
+      <selection activeCell="J26" sqref="J26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -935,7 +935,9 @@
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
       <c r="D2" s="35"/>
-      <c r="E2" s="1"/>
+      <c r="E2" s="32">
+        <v>1</v>
+      </c>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
@@ -959,9 +961,12 @@
       <c r="B3" s="3"/>
       <c r="C3" s="3"/>
       <c r="D3" s="3">
+        <f>2+4</f>
+        <v>6</v>
+      </c>
+      <c r="E3" s="3">
         <v>2</v>
       </c>
-      <c r="E3" s="1"/>
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
@@ -985,9 +990,12 @@
       <c r="B4" s="3"/>
       <c r="C4" s="3"/>
       <c r="D4" s="3">
+        <f>2+4</f>
+        <v>6</v>
+      </c>
+      <c r="E4" s="3">
         <v>2</v>
       </c>
-      <c r="E4" s="1"/>
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
@@ -1010,8 +1018,10 @@
       </c>
       <c r="B5" s="3"/>
       <c r="C5" s="3"/>
-      <c r="D5" s="3"/>
-      <c r="E5" s="1"/>
+      <c r="D5" s="3">
+        <v>4</v>
+      </c>
+      <c r="E5" s="3"/>
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
       <c r="H5" s="1"/>
@@ -1034,8 +1044,12 @@
       </c>
       <c r="B6" s="3"/>
       <c r="C6" s="3"/>
-      <c r="D6" s="3"/>
-      <c r="E6" s="1"/>
+      <c r="D6" s="3">
+        <v>1.5</v>
+      </c>
+      <c r="E6" s="32">
+        <v>1</v>
+      </c>
       <c r="F6" s="1"/>
       <c r="G6" s="1"/>
       <c r="H6" s="1"/>
@@ -1059,7 +1073,7 @@
       <c r="B7" s="4"/>
       <c r="C7" s="3"/>
       <c r="D7" s="4"/>
-      <c r="E7" s="1"/>
+      <c r="E7" s="4"/>
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
@@ -1083,9 +1097,11 @@
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>
       <c r="D8" s="3">
+        <v>6</v>
+      </c>
+      <c r="E8" s="3">
         <v>2</v>
       </c>
-      <c r="E8" s="1"/>
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
       <c r="H8" s="1"/>
@@ -1108,8 +1124,10 @@
       </c>
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
-      <c r="D9" s="3"/>
-      <c r="E9" s="1"/>
+      <c r="D9" s="3">
+        <v>2</v>
+      </c>
+      <c r="E9" s="3"/>
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
@@ -1132,8 +1150,12 @@
       </c>
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
-      <c r="D10" s="3"/>
-      <c r="E10" s="1"/>
+      <c r="D10" s="3">
+        <v>5</v>
+      </c>
+      <c r="E10" s="3">
+        <v>1</v>
+      </c>
       <c r="F10" s="1"/>
       <c r="G10" s="1"/>
       <c r="H10" s="1"/>
@@ -1157,7 +1179,7 @@
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
       <c r="D11" s="3"/>
-      <c r="E11" s="1"/>
+      <c r="E11" s="4"/>
       <c r="F11" s="1"/>
       <c r="G11" s="1"/>
       <c r="H11" s="1"/>
@@ -1180,8 +1202,12 @@
       </c>
       <c r="B12" s="3"/>
       <c r="C12" s="3"/>
-      <c r="D12" s="3"/>
-      <c r="E12" s="1"/>
+      <c r="D12" s="3">
+        <v>1</v>
+      </c>
+      <c r="E12" s="3">
+        <v>1</v>
+      </c>
       <c r="F12" s="1"/>
       <c r="G12" s="1"/>
       <c r="H12" s="1"/>
@@ -1205,9 +1231,11 @@
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
       <c r="D13" s="3">
+        <v>6</v>
+      </c>
+      <c r="E13" s="3">
         <v>2</v>
       </c>
-      <c r="E13" s="1"/>
       <c r="F13" s="1"/>
       <c r="G13" s="1"/>
       <c r="H13" s="1"/>
@@ -1230,8 +1258,12 @@
       </c>
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
-      <c r="D14" s="3"/>
-      <c r="E14" s="1"/>
+      <c r="D14" s="3">
+        <v>4</v>
+      </c>
+      <c r="E14" s="3">
+        <v>1</v>
+      </c>
       <c r="F14" s="1"/>
       <c r="G14" s="1"/>
       <c r="H14" s="1"/>
@@ -1254,8 +1286,12 @@
       </c>
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
-      <c r="D15" s="3"/>
-      <c r="E15" s="1"/>
+      <c r="D15" s="3">
+        <v>3.5</v>
+      </c>
+      <c r="E15" s="3">
+        <v>3</v>
+      </c>
       <c r="F15" s="1"/>
       <c r="G15" s="1"/>
       <c r="H15" s="1"/>
@@ -1279,9 +1315,9 @@
       <c r="B16" s="8"/>
       <c r="C16" s="3"/>
       <c r="D16" s="3">
-        <v>2</v>
-      </c>
-      <c r="E16" s="6"/>
+        <v>5</v>
+      </c>
+      <c r="E16" s="32"/>
       <c r="F16" s="6"/>
       <c r="G16" s="6"/>
       <c r="H16" s="6"/>

--- a/obecnosci_i_oceny.xlsx
+++ b/obecnosci_i_oceny.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/neegra/paradygmaty-programowania/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{690713BA-B6BD-A343-857E-BF2E36ED8CAA}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E437B34A-BF37-AC44-82E7-AFDC2AE55055}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="280" yWindow="460" windowWidth="28240" windowHeight="17100" xr2:uid="{97166A3A-37EA-D446-B119-A32076EDFA0A}"/>
   </bookViews>
@@ -866,7 +866,7 @@
   <dimension ref="A1:Q35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J26" sqref="J26"/>
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -938,7 +938,9 @@
       <c r="E2" s="32">
         <v>1</v>
       </c>
-      <c r="F2" s="1"/>
+      <c r="F2" s="32">
+        <v>5</v>
+      </c>
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
@@ -967,7 +969,9 @@
       <c r="E3" s="3">
         <v>2</v>
       </c>
-      <c r="F3" s="1"/>
+      <c r="F3" s="3">
+        <v>9</v>
+      </c>
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
@@ -996,7 +1000,9 @@
       <c r="E4" s="3">
         <v>2</v>
       </c>
-      <c r="F4" s="1"/>
+      <c r="F4" s="3">
+        <v>6</v>
+      </c>
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
@@ -1022,7 +1028,9 @@
         <v>4</v>
       </c>
       <c r="E5" s="3"/>
-      <c r="F5" s="1"/>
+      <c r="F5" s="3">
+        <v>3</v>
+      </c>
       <c r="G5" s="1"/>
       <c r="H5" s="1"/>
       <c r="I5" s="1"/>
@@ -1050,7 +1058,9 @@
       <c r="E6" s="32">
         <v>1</v>
       </c>
-      <c r="F6" s="1"/>
+      <c r="F6" s="3">
+        <v>3</v>
+      </c>
       <c r="G6" s="1"/>
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
@@ -1074,7 +1084,7 @@
       <c r="C7" s="3"/>
       <c r="D7" s="4"/>
       <c r="E7" s="4"/>
-      <c r="F7" s="1"/>
+      <c r="F7" s="4"/>
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
@@ -1102,7 +1112,9 @@
       <c r="E8" s="3">
         <v>2</v>
       </c>
-      <c r="F8" s="1"/>
+      <c r="F8" s="3">
+        <v>9</v>
+      </c>
       <c r="G8" s="1"/>
       <c r="H8" s="1"/>
       <c r="I8" s="1"/>
@@ -1128,7 +1140,7 @@
         <v>2</v>
       </c>
       <c r="E9" s="3"/>
-      <c r="F9" s="1"/>
+      <c r="F9" s="3"/>
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
@@ -1156,7 +1168,9 @@
       <c r="E10" s="3">
         <v>1</v>
       </c>
-      <c r="F10" s="1"/>
+      <c r="F10" s="3">
+        <v>6</v>
+      </c>
       <c r="G10" s="1"/>
       <c r="H10" s="1"/>
       <c r="I10" s="1"/>
@@ -1180,7 +1194,7 @@
       <c r="C11" s="3"/>
       <c r="D11" s="3"/>
       <c r="E11" s="4"/>
-      <c r="F11" s="1"/>
+      <c r="F11" s="4"/>
       <c r="G11" s="1"/>
       <c r="H11" s="1"/>
       <c r="I11" s="1"/>
@@ -1208,7 +1222,9 @@
       <c r="E12" s="3">
         <v>1</v>
       </c>
-      <c r="F12" s="1"/>
+      <c r="F12" s="3">
+        <v>5</v>
+      </c>
       <c r="G12" s="1"/>
       <c r="H12" s="1"/>
       <c r="I12" s="1"/>
@@ -1234,9 +1250,11 @@
         <v>6</v>
       </c>
       <c r="E13" s="3">
-        <v>2</v>
-      </c>
-      <c r="F13" s="1"/>
+        <v>3</v>
+      </c>
+      <c r="F13" s="3">
+        <v>7</v>
+      </c>
       <c r="G13" s="1"/>
       <c r="H13" s="1"/>
       <c r="I13" s="1"/>
@@ -1264,7 +1282,9 @@
       <c r="E14" s="3">
         <v>1</v>
       </c>
-      <c r="F14" s="1"/>
+      <c r="F14" s="3">
+        <v>3</v>
+      </c>
       <c r="G14" s="1"/>
       <c r="H14" s="1"/>
       <c r="I14" s="1"/>
@@ -1292,7 +1312,9 @@
       <c r="E15" s="3">
         <v>3</v>
       </c>
-      <c r="F15" s="1"/>
+      <c r="F15" s="3">
+        <v>5</v>
+      </c>
       <c r="G15" s="1"/>
       <c r="H15" s="1"/>
       <c r="I15" s="1"/>
@@ -1318,7 +1340,9 @@
         <v>5</v>
       </c>
       <c r="E16" s="32"/>
-      <c r="F16" s="6"/>
+      <c r="F16" s="3">
+        <v>7</v>
+      </c>
       <c r="G16" s="6"/>
       <c r="H16" s="6"/>
       <c r="I16" s="6"/>

--- a/obecnosci_i_oceny.xlsx
+++ b/obecnosci_i_oceny.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/neegra/paradygmaty-programowania/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E437B34A-BF37-AC44-82E7-AFDC2AE55055}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E621B6B8-5522-B248-81FD-C5DB5082EFF8}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="280" yWindow="460" windowWidth="28240" windowHeight="17100" xr2:uid="{97166A3A-37EA-D446-B119-A32076EDFA0A}"/>
   </bookViews>
@@ -200,7 +200,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -237,6 +237,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.34998626667073579"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="16">
     <border>
@@ -466,7 +472,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -548,6 +554,12 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normalny" xfId="0" builtinId="0"/>
@@ -866,7 +878,7 @@
   <dimension ref="A1:Q35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -941,8 +953,12 @@
       <c r="F2" s="32">
         <v>5</v>
       </c>
-      <c r="G2" s="1"/>
-      <c r="H2" s="1"/>
+      <c r="G2" s="39">
+        <v>6</v>
+      </c>
+      <c r="H2" s="3">
+        <v>2</v>
+      </c>
       <c r="I2" s="1"/>
       <c r="J2" s="1"/>
       <c r="K2" s="1"/>
@@ -967,13 +983,17 @@
         <v>6</v>
       </c>
       <c r="E3" s="3">
-        <v>2</v>
-      </c>
-      <c r="F3" s="3">
+        <v>5</v>
+      </c>
+      <c r="F3" s="44">
         <v>9</v>
       </c>
-      <c r="G3" s="1"/>
-      <c r="H3" s="1"/>
+      <c r="G3" s="43">
+        <v>10</v>
+      </c>
+      <c r="H3" s="44">
+        <v>4</v>
+      </c>
       <c r="I3" s="1"/>
       <c r="J3" s="1"/>
       <c r="K3" s="1"/>
@@ -998,13 +1018,17 @@
         <v>6</v>
       </c>
       <c r="E4" s="3">
+        <v>4</v>
+      </c>
+      <c r="F4" s="3">
+        <v>8</v>
+      </c>
+      <c r="G4" s="42">
+        <v>10</v>
+      </c>
+      <c r="H4" s="3">
         <v>2</v>
       </c>
-      <c r="F4" s="3">
-        <v>6</v>
-      </c>
-      <c r="G4" s="1"/>
-      <c r="H4" s="1"/>
       <c r="I4" s="1"/>
       <c r="J4" s="1"/>
       <c r="K4" s="1"/>
@@ -1027,12 +1051,16 @@
       <c r="D5" s="3">
         <v>4</v>
       </c>
-      <c r="E5" s="3"/>
+      <c r="E5" s="3">
+        <v>1</v>
+      </c>
       <c r="F5" s="3">
-        <v>3</v>
-      </c>
-      <c r="G5" s="1"/>
-      <c r="H5" s="1"/>
+        <v>6.5</v>
+      </c>
+      <c r="G5" s="39">
+        <v>10</v>
+      </c>
+      <c r="H5" s="3"/>
       <c r="I5" s="1"/>
       <c r="J5" s="1"/>
       <c r="K5" s="1"/>
@@ -1059,10 +1087,12 @@
         <v>1</v>
       </c>
       <c r="F6" s="3">
-        <v>3</v>
-      </c>
-      <c r="G6" s="1"/>
-      <c r="H6" s="1"/>
+        <v>6.5</v>
+      </c>
+      <c r="G6" s="39">
+        <v>8</v>
+      </c>
+      <c r="H6" s="44"/>
       <c r="I6" s="1"/>
       <c r="J6" s="1"/>
       <c r="K6" s="1"/>
@@ -1085,8 +1115,8 @@
       <c r="D7" s="4"/>
       <c r="E7" s="4"/>
       <c r="F7" s="4"/>
-      <c r="G7" s="1"/>
-      <c r="H7" s="1"/>
+      <c r="G7" s="41"/>
+      <c r="H7" s="4"/>
       <c r="I7" s="1"/>
       <c r="J7" s="1"/>
       <c r="K7" s="1"/>
@@ -1115,8 +1145,12 @@
       <c r="F8" s="3">
         <v>9</v>
       </c>
-      <c r="G8" s="1"/>
-      <c r="H8" s="1"/>
+      <c r="G8" s="41">
+        <v>5</v>
+      </c>
+      <c r="H8" s="44">
+        <v>2</v>
+      </c>
       <c r="I8" s="1"/>
       <c r="J8" s="1"/>
       <c r="K8" s="1"/>
@@ -1137,12 +1171,16 @@
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
       <c r="D9" s="3">
+        <v>3</v>
+      </c>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3">
         <v>2</v>
       </c>
-      <c r="E9" s="3"/>
-      <c r="F9" s="3"/>
-      <c r="G9" s="1"/>
-      <c r="H9" s="1"/>
+      <c r="G9" s="39">
+        <v>6</v>
+      </c>
+      <c r="H9" s="3"/>
       <c r="I9" s="1"/>
       <c r="J9" s="1"/>
       <c r="K9" s="1"/>
@@ -1166,13 +1204,17 @@
         <v>5</v>
       </c>
       <c r="E10" s="3">
-        <v>1</v>
+        <v>2.5</v>
       </c>
       <c r="F10" s="3">
-        <v>6</v>
-      </c>
-      <c r="G10" s="1"/>
-      <c r="H10" s="1"/>
+        <v>8</v>
+      </c>
+      <c r="G10" s="39">
+        <v>10</v>
+      </c>
+      <c r="H10" s="3">
+        <v>4</v>
+      </c>
       <c r="I10" s="1"/>
       <c r="J10" s="1"/>
       <c r="K10" s="1"/>
@@ -1180,7 +1222,9 @@
       <c r="M10" s="1"/>
       <c r="N10" s="1"/>
       <c r="O10" s="1"/>
-      <c r="P10" s="14"/>
+      <c r="P10" s="14">
+        <v>1</v>
+      </c>
       <c r="Q10" s="15" t="str">
         <f t="shared" si="0"/>
         <v>2.0</v>
@@ -1195,8 +1239,8 @@
       <c r="D11" s="3"/>
       <c r="E11" s="4"/>
       <c r="F11" s="4"/>
-      <c r="G11" s="1"/>
-      <c r="H11" s="1"/>
+      <c r="G11" s="41"/>
+      <c r="H11" s="4"/>
       <c r="I11" s="1"/>
       <c r="J11" s="1"/>
       <c r="K11" s="1"/>
@@ -1217,16 +1261,18 @@
       <c r="B12" s="3"/>
       <c r="C12" s="3"/>
       <c r="D12" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E12" s="3">
-        <v>1</v>
+        <v>3.5</v>
       </c>
       <c r="F12" s="3">
-        <v>5</v>
-      </c>
-      <c r="G12" s="1"/>
-      <c r="H12" s="1"/>
+        <v>6.25</v>
+      </c>
+      <c r="G12" s="39">
+        <v>2</v>
+      </c>
+      <c r="H12" s="3"/>
       <c r="I12" s="1"/>
       <c r="J12" s="1"/>
       <c r="K12" s="1"/>
@@ -1250,13 +1296,17 @@
         <v>6</v>
       </c>
       <c r="E13" s="3">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F13" s="3">
-        <v>7</v>
-      </c>
-      <c r="G13" s="1"/>
-      <c r="H13" s="1"/>
+        <v>8.5</v>
+      </c>
+      <c r="G13" s="42">
+        <v>10</v>
+      </c>
+      <c r="H13" s="3">
+        <v>4</v>
+      </c>
       <c r="I13" s="1"/>
       <c r="J13" s="1"/>
       <c r="K13" s="1"/>
@@ -1283,10 +1333,14 @@
         <v>1</v>
       </c>
       <c r="F14" s="3">
-        <v>3</v>
-      </c>
-      <c r="G14" s="1"/>
-      <c r="H14" s="1"/>
+        <v>6.5</v>
+      </c>
+      <c r="G14" s="39">
+        <v>10</v>
+      </c>
+      <c r="H14" s="3">
+        <v>2</v>
+      </c>
       <c r="I14" s="1"/>
       <c r="J14" s="1"/>
       <c r="K14" s="1"/>
@@ -1310,13 +1364,17 @@
         <v>3.5</v>
       </c>
       <c r="E15" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F15" s="3">
-        <v>5</v>
-      </c>
-      <c r="G15" s="1"/>
-      <c r="H15" s="1"/>
+        <v>7.5</v>
+      </c>
+      <c r="G15" s="39">
+        <v>8</v>
+      </c>
+      <c r="H15" s="3">
+        <v>4</v>
+      </c>
       <c r="I15" s="1"/>
       <c r="J15" s="1"/>
       <c r="K15" s="1"/>
@@ -1341,10 +1399,14 @@
       </c>
       <c r="E16" s="32"/>
       <c r="F16" s="3">
-        <v>7</v>
-      </c>
-      <c r="G16" s="6"/>
-      <c r="H16" s="6"/>
+        <v>8.5</v>
+      </c>
+      <c r="G16" s="40">
+        <v>8</v>
+      </c>
+      <c r="H16" s="8">
+        <v>2</v>
+      </c>
       <c r="I16" s="6"/>
       <c r="J16" s="6"/>
       <c r="K16" s="6"/>

--- a/obecnosci_i_oceny.xlsx
+++ b/obecnosci_i_oceny.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/neegra/paradygmaty-programowania/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E621B6B8-5522-B248-81FD-C5DB5082EFF8}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2076661-40D2-CC48-AA25-57D1148348C7}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="280" yWindow="460" windowWidth="28240" windowHeight="17100" xr2:uid="{97166A3A-37EA-D446-B119-A32076EDFA0A}"/>
   </bookViews>
@@ -472,7 +472,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -519,24 +519,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -560,6 +542,25 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normalny" xfId="0" builtinId="0"/>
@@ -878,7 +879,7 @@
   <dimension ref="A1:Q35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+      <selection activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -946,20 +947,20 @@
       </c>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
-      <c r="D2" s="35"/>
-      <c r="E2" s="32">
+      <c r="D2" s="29"/>
+      <c r="E2" s="26">
         <v>1</v>
       </c>
-      <c r="F2" s="32">
+      <c r="F2" s="26">
         <v>5</v>
       </c>
-      <c r="G2" s="39">
+      <c r="G2" s="33">
         <v>6</v>
       </c>
       <c r="H2" s="3">
         <v>2</v>
       </c>
-      <c r="I2" s="1"/>
+      <c r="I2" s="3"/>
       <c r="J2" s="1"/>
       <c r="K2" s="1"/>
       <c r="L2" s="1"/>
@@ -985,16 +986,16 @@
       <c r="E3" s="3">
         <v>5</v>
       </c>
-      <c r="F3" s="44">
+      <c r="F3" s="38">
         <v>9</v>
       </c>
-      <c r="G3" s="43">
-        <v>10</v>
-      </c>
-      <c r="H3" s="44">
+      <c r="G3" s="37">
+        <v>10</v>
+      </c>
+      <c r="H3" s="38">
         <v>4</v>
       </c>
-      <c r="I3" s="1"/>
+      <c r="I3" s="3"/>
       <c r="J3" s="1"/>
       <c r="K3" s="1"/>
       <c r="L3" s="1"/>
@@ -1023,13 +1024,13 @@
       <c r="F4" s="3">
         <v>8</v>
       </c>
-      <c r="G4" s="42">
+      <c r="G4" s="36">
         <v>10</v>
       </c>
       <c r="H4" s="3">
-        <v>2</v>
-      </c>
-      <c r="I4" s="1"/>
+        <v>6</v>
+      </c>
+      <c r="I4" s="3"/>
       <c r="J4" s="1"/>
       <c r="K4" s="1"/>
       <c r="L4" s="1"/>
@@ -1057,11 +1058,15 @@
       <c r="F5" s="3">
         <v>6.5</v>
       </c>
-      <c r="G5" s="39">
-        <v>10</v>
-      </c>
-      <c r="H5" s="3"/>
-      <c r="I5" s="1"/>
+      <c r="G5" s="33">
+        <v>10</v>
+      </c>
+      <c r="H5" s="3">
+        <v>1</v>
+      </c>
+      <c r="I5" s="3">
+        <v>6</v>
+      </c>
       <c r="J5" s="1"/>
       <c r="K5" s="1"/>
       <c r="L5" s="1"/>
@@ -1083,17 +1088,17 @@
       <c r="D6" s="3">
         <v>1.5</v>
       </c>
-      <c r="E6" s="32">
+      <c r="E6" s="26">
         <v>1</v>
       </c>
       <c r="F6" s="3">
         <v>6.5</v>
       </c>
-      <c r="G6" s="39">
+      <c r="G6" s="33">
         <v>8</v>
       </c>
-      <c r="H6" s="44"/>
-      <c r="I6" s="1"/>
+      <c r="H6" s="38"/>
+      <c r="I6" s="38"/>
       <c r="J6" s="1"/>
       <c r="K6" s="1"/>
       <c r="L6" s="1"/>
@@ -1115,9 +1120,9 @@
       <c r="D7" s="4"/>
       <c r="E7" s="4"/>
       <c r="F7" s="4"/>
-      <c r="G7" s="41"/>
+      <c r="G7" s="35"/>
       <c r="H7" s="4"/>
-      <c r="I7" s="1"/>
+      <c r="I7" s="45"/>
       <c r="J7" s="1"/>
       <c r="K7" s="1"/>
       <c r="L7" s="1"/>
@@ -1145,13 +1150,13 @@
       <c r="F8" s="3">
         <v>9</v>
       </c>
-      <c r="G8" s="41">
+      <c r="G8" s="35">
         <v>5</v>
       </c>
-      <c r="H8" s="44">
+      <c r="H8" s="38">
         <v>2</v>
       </c>
-      <c r="I8" s="1"/>
+      <c r="I8" s="3"/>
       <c r="J8" s="1"/>
       <c r="K8" s="1"/>
       <c r="L8" s="1"/>
@@ -1177,11 +1182,13 @@
       <c r="F9" s="3">
         <v>2</v>
       </c>
-      <c r="G9" s="39">
+      <c r="G9" s="33">
         <v>6</v>
       </c>
       <c r="H9" s="3"/>
-      <c r="I9" s="1"/>
+      <c r="I9" s="3">
+        <v>6</v>
+      </c>
       <c r="J9" s="1"/>
       <c r="K9" s="1"/>
       <c r="L9" s="1"/>
@@ -1209,13 +1216,15 @@
       <c r="F10" s="3">
         <v>8</v>
       </c>
-      <c r="G10" s="39">
+      <c r="G10" s="33">
         <v>10</v>
       </c>
       <c r="H10" s="3">
-        <v>4</v>
-      </c>
-      <c r="I10" s="1"/>
+        <v>7</v>
+      </c>
+      <c r="I10" s="3">
+        <v>6</v>
+      </c>
       <c r="J10" s="1"/>
       <c r="K10" s="1"/>
       <c r="L10" s="1"/>
@@ -1239,9 +1248,9 @@
       <c r="D11" s="3"/>
       <c r="E11" s="4"/>
       <c r="F11" s="4"/>
-      <c r="G11" s="41"/>
+      <c r="G11" s="35"/>
       <c r="H11" s="4"/>
-      <c r="I11" s="1"/>
+      <c r="I11" s="4"/>
       <c r="J11" s="1"/>
       <c r="K11" s="1"/>
       <c r="L11" s="1"/>
@@ -1269,11 +1278,11 @@
       <c r="F12" s="3">
         <v>6.25</v>
       </c>
-      <c r="G12" s="39">
+      <c r="G12" s="33">
         <v>2</v>
       </c>
       <c r="H12" s="3"/>
-      <c r="I12" s="1"/>
+      <c r="I12" s="4"/>
       <c r="J12" s="1"/>
       <c r="K12" s="1"/>
       <c r="L12" s="1"/>
@@ -1301,13 +1310,13 @@
       <c r="F13" s="3">
         <v>8.5</v>
       </c>
-      <c r="G13" s="42">
+      <c r="G13" s="36">
         <v>10</v>
       </c>
       <c r="H13" s="3">
-        <v>4</v>
-      </c>
-      <c r="I13" s="1"/>
+        <v>7</v>
+      </c>
+      <c r="I13" s="3"/>
       <c r="J13" s="1"/>
       <c r="K13" s="1"/>
       <c r="L13" s="1"/>
@@ -1335,13 +1344,13 @@
       <c r="F14" s="3">
         <v>6.5</v>
       </c>
-      <c r="G14" s="39">
+      <c r="G14" s="33">
         <v>10</v>
       </c>
       <c r="H14" s="3">
-        <v>2</v>
-      </c>
-      <c r="I14" s="1"/>
+        <v>4</v>
+      </c>
+      <c r="I14" s="3"/>
       <c r="J14" s="1"/>
       <c r="K14" s="1"/>
       <c r="L14" s="1"/>
@@ -1369,13 +1378,15 @@
       <c r="F15" s="3">
         <v>7.5</v>
       </c>
-      <c r="G15" s="39">
+      <c r="G15" s="33">
         <v>8</v>
       </c>
       <c r="H15" s="3">
-        <v>4</v>
-      </c>
-      <c r="I15" s="1"/>
+        <v>6</v>
+      </c>
+      <c r="I15" s="3">
+        <v>12</v>
+      </c>
       <c r="J15" s="1"/>
       <c r="K15" s="1"/>
       <c r="L15" s="1"/>
@@ -1397,17 +1408,17 @@
       <c r="D16" s="3">
         <v>5</v>
       </c>
-      <c r="E16" s="32"/>
+      <c r="E16" s="26"/>
       <c r="F16" s="3">
         <v>8.5</v>
       </c>
-      <c r="G16" s="40">
+      <c r="G16" s="34">
         <v>8</v>
       </c>
       <c r="H16" s="8">
-        <v>2</v>
-      </c>
-      <c r="I16" s="6"/>
+        <v>6</v>
+      </c>
+      <c r="I16" s="8"/>
       <c r="J16" s="6"/>
       <c r="K16" s="6"/>
       <c r="L16" s="6"/>
@@ -1421,11 +1432,11 @@
       </c>
     </row>
     <row r="17" spans="1:15">
-      <c r="A17" s="26" t="s">
+      <c r="A17" s="41" t="s">
         <v>29</v>
       </c>
-      <c r="B17" s="26"/>
-      <c r="C17" s="27"/>
+      <c r="B17" s="41"/>
+      <c r="C17" s="42"/>
       <c r="D17" s="5" t="s">
         <v>16</v>
       </c>
@@ -1464,11 +1475,11 @@
       </c>
     </row>
     <row r="18" spans="1:15" ht="17" thickBot="1">
-      <c r="A18" s="24" t="s">
+      <c r="A18" s="39" t="s">
         <v>30</v>
       </c>
-      <c r="B18" s="24"/>
-      <c r="C18" s="25"/>
+      <c r="B18" s="39"/>
+      <c r="C18" s="40"/>
       <c r="D18" s="11">
         <v>10</v>
       </c>
@@ -1508,64 +1519,64 @@
     </row>
     <row r="20" spans="1:15" ht="17" thickBot="1"/>
     <row r="21" spans="1:15" ht="17" thickBot="1">
-      <c r="B21" s="28" t="s">
+      <c r="B21" s="43" t="s">
         <v>42</v>
       </c>
-      <c r="C21" s="29"/>
-      <c r="E21" s="34" t="s">
+      <c r="C21" s="44"/>
+      <c r="E21" s="28" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="22" spans="1:15">
-      <c r="B22" s="37">
+      <c r="B22" s="31">
         <v>0</v>
       </c>
       <c r="C22" s="23" t="s">
         <v>36</v>
       </c>
-      <c r="E22" s="33"/>
+      <c r="E22" s="27"/>
       <c r="F22" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="23" spans="1:15">
-      <c r="B23" s="38">
+      <c r="B23" s="32">
         <v>0.51</v>
       </c>
       <c r="C23" s="22" t="s">
         <v>35</v>
       </c>
-      <c r="E23" s="30"/>
+      <c r="E23" s="24"/>
       <c r="F23" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="24" spans="1:15">
-      <c r="B24" s="38">
+      <c r="B24" s="32">
         <v>0.61</v>
       </c>
       <c r="C24" s="22" t="s">
         <v>34</v>
       </c>
-      <c r="E24" s="31"/>
+      <c r="E24" s="25"/>
       <c r="F24" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="25" spans="1:15">
-      <c r="B25" s="38">
+      <c r="B25" s="32">
         <v>0.71</v>
       </c>
       <c r="C25" s="22" t="s">
         <v>32</v>
       </c>
-      <c r="E25" s="32"/>
+      <c r="E25" s="26"/>
       <c r="F25" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="26" spans="1:15">
-      <c r="B26" s="38">
+      <c r="B26" s="32">
         <v>0.81</v>
       </c>
       <c r="C26" s="22" t="s">
@@ -1573,7 +1584,7 @@
       </c>
     </row>
     <row r="27" spans="1:15">
-      <c r="B27" s="38">
+      <c r="B27" s="32">
         <v>0.91</v>
       </c>
       <c r="C27" s="22" t="s">
@@ -1581,7 +1592,7 @@
       </c>
     </row>
     <row r="28" spans="1:15">
-      <c r="B28" s="36"/>
+      <c r="B28" s="30"/>
       <c r="C28" s="21"/>
     </row>
     <row r="29" spans="1:15">

--- a/obecnosci_i_oceny.xlsx
+++ b/obecnosci_i_oceny.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/neegra/paradygmaty-programowania/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2076661-40D2-CC48-AA25-57D1148348C7}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06719C34-9B93-CE40-95BF-AD4731CB8042}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="280" yWindow="460" windowWidth="28240" windowHeight="17100" xr2:uid="{97166A3A-37EA-D446-B119-A32076EDFA0A}"/>
   </bookViews>
@@ -542,6 +542,7 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -560,7 +561,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normalny" xfId="0" builtinId="0"/>
@@ -879,7 +879,7 @@
   <dimension ref="A1:Q35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J13" sqref="J13"/>
+      <selection activeCell="J14" sqref="J14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -960,8 +960,10 @@
       <c r="H2" s="3">
         <v>2</v>
       </c>
-      <c r="I2" s="3"/>
-      <c r="J2" s="1"/>
+      <c r="I2" s="3">
+        <v>6</v>
+      </c>
+      <c r="J2" s="3"/>
       <c r="K2" s="1"/>
       <c r="L2" s="1"/>
       <c r="M2" s="1"/>
@@ -995,8 +997,10 @@
       <c r="H3" s="38">
         <v>4</v>
       </c>
-      <c r="I3" s="3"/>
-      <c r="J3" s="1"/>
+      <c r="I3" s="3">
+        <v>6</v>
+      </c>
+      <c r="J3" s="3"/>
       <c r="K3" s="1"/>
       <c r="L3" s="1"/>
       <c r="M3" s="1"/>
@@ -1030,8 +1034,10 @@
       <c r="H4" s="3">
         <v>6</v>
       </c>
-      <c r="I4" s="3"/>
-      <c r="J4" s="1"/>
+      <c r="I4" s="3">
+        <v>6</v>
+      </c>
+      <c r="J4" s="3"/>
       <c r="K4" s="1"/>
       <c r="L4" s="1"/>
       <c r="M4" s="1"/>
@@ -1062,12 +1068,12 @@
         <v>10</v>
       </c>
       <c r="H5" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I5" s="3">
-        <v>6</v>
-      </c>
-      <c r="J5" s="1"/>
+        <v>9</v>
+      </c>
+      <c r="J5" s="3"/>
       <c r="K5" s="1"/>
       <c r="L5" s="1"/>
       <c r="M5" s="1"/>
@@ -1098,8 +1104,10 @@
         <v>8</v>
       </c>
       <c r="H6" s="38"/>
-      <c r="I6" s="38"/>
-      <c r="J6" s="1"/>
+      <c r="I6" s="38">
+        <v>6</v>
+      </c>
+      <c r="J6" s="3"/>
       <c r="K6" s="1"/>
       <c r="L6" s="1"/>
       <c r="M6" s="1"/>
@@ -1122,8 +1130,8 @@
       <c r="F7" s="4"/>
       <c r="G7" s="35"/>
       <c r="H7" s="4"/>
-      <c r="I7" s="45"/>
-      <c r="J7" s="1"/>
+      <c r="I7" s="39"/>
+      <c r="J7" s="4"/>
       <c r="K7" s="1"/>
       <c r="L7" s="1"/>
       <c r="M7" s="1"/>
@@ -1156,8 +1164,10 @@
       <c r="H8" s="38">
         <v>2</v>
       </c>
-      <c r="I8" s="3"/>
-      <c r="J8" s="1"/>
+      <c r="I8" s="3">
+        <v>6</v>
+      </c>
+      <c r="J8" s="3"/>
       <c r="K8" s="1"/>
       <c r="L8" s="1"/>
       <c r="M8" s="1"/>
@@ -1187,9 +1197,9 @@
       </c>
       <c r="H9" s="3"/>
       <c r="I9" s="3">
-        <v>6</v>
-      </c>
-      <c r="J9" s="1"/>
+        <v>9</v>
+      </c>
+      <c r="J9" s="3"/>
       <c r="K9" s="1"/>
       <c r="L9" s="1"/>
       <c r="M9" s="1"/>
@@ -1223,9 +1233,9 @@
         <v>7</v>
       </c>
       <c r="I10" s="3">
-        <v>6</v>
-      </c>
-      <c r="J10" s="1"/>
+        <v>11</v>
+      </c>
+      <c r="J10" s="3"/>
       <c r="K10" s="1"/>
       <c r="L10" s="1"/>
       <c r="M10" s="1"/>
@@ -1251,7 +1261,7 @@
       <c r="G11" s="35"/>
       <c r="H11" s="4"/>
       <c r="I11" s="4"/>
-      <c r="J11" s="1"/>
+      <c r="J11" s="4"/>
       <c r="K11" s="1"/>
       <c r="L11" s="1"/>
       <c r="M11" s="1"/>
@@ -1282,8 +1292,10 @@
         <v>2</v>
       </c>
       <c r="H12" s="3"/>
-      <c r="I12" s="4"/>
-      <c r="J12" s="1"/>
+      <c r="I12" s="4">
+        <v>3</v>
+      </c>
+      <c r="J12" s="3"/>
       <c r="K12" s="1"/>
       <c r="L12" s="1"/>
       <c r="M12" s="1"/>
@@ -1316,8 +1328,10 @@
       <c r="H13" s="3">
         <v>7</v>
       </c>
-      <c r="I13" s="3"/>
-      <c r="J13" s="1"/>
+      <c r="I13" s="3">
+        <v>6</v>
+      </c>
+      <c r="J13" s="3"/>
       <c r="K13" s="1"/>
       <c r="L13" s="1"/>
       <c r="M13" s="1"/>
@@ -1350,8 +1364,10 @@
       <c r="H14" s="3">
         <v>4</v>
       </c>
-      <c r="I14" s="3"/>
-      <c r="J14" s="1"/>
+      <c r="I14" s="3">
+        <v>6</v>
+      </c>
+      <c r="J14" s="3"/>
       <c r="K14" s="1"/>
       <c r="L14" s="1"/>
       <c r="M14" s="1"/>
@@ -1385,9 +1401,9 @@
         <v>6</v>
       </c>
       <c r="I15" s="3">
-        <v>12</v>
-      </c>
-      <c r="J15" s="1"/>
+        <v>14</v>
+      </c>
+      <c r="J15" s="38"/>
       <c r="K15" s="1"/>
       <c r="L15" s="1"/>
       <c r="M15" s="1"/>
@@ -1419,7 +1435,7 @@
         <v>6</v>
       </c>
       <c r="I16" s="8"/>
-      <c r="J16" s="6"/>
+      <c r="J16" s="8"/>
       <c r="K16" s="6"/>
       <c r="L16" s="6"/>
       <c r="M16" s="6"/>
@@ -1432,11 +1448,11 @@
       </c>
     </row>
     <row r="17" spans="1:15">
-      <c r="A17" s="41" t="s">
+      <c r="A17" s="42" t="s">
         <v>29</v>
       </c>
-      <c r="B17" s="41"/>
-      <c r="C17" s="42"/>
+      <c r="B17" s="42"/>
+      <c r="C17" s="43"/>
       <c r="D17" s="5" t="s">
         <v>16</v>
       </c>
@@ -1475,11 +1491,11 @@
       </c>
     </row>
     <row r="18" spans="1:15" ht="17" thickBot="1">
-      <c r="A18" s="39" t="s">
+      <c r="A18" s="40" t="s">
         <v>30</v>
       </c>
-      <c r="B18" s="39"/>
-      <c r="C18" s="40"/>
+      <c r="B18" s="40"/>
+      <c r="C18" s="41"/>
       <c r="D18" s="11">
         <v>10</v>
       </c>
@@ -1519,10 +1535,10 @@
     </row>
     <row r="20" spans="1:15" ht="17" thickBot="1"/>
     <row r="21" spans="1:15" ht="17" thickBot="1">
-      <c r="B21" s="43" t="s">
+      <c r="B21" s="44" t="s">
         <v>42</v>
       </c>
-      <c r="C21" s="44"/>
+      <c r="C21" s="45"/>
       <c r="E21" s="28" t="s">
         <v>37</v>
       </c>

--- a/obecnosci_i_oceny.xlsx
+++ b/obecnosci_i_oceny.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/neegra/paradygmaty-programowania/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06719C34-9B93-CE40-95BF-AD4731CB8042}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F428569-12B7-6D44-95FF-AE002DFE1A04}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="280" yWindow="460" windowWidth="28240" windowHeight="17100" xr2:uid="{97166A3A-37EA-D446-B119-A32076EDFA0A}"/>
   </bookViews>
@@ -879,7 +879,7 @@
   <dimension ref="A1:Q35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J14" sqref="J14"/>
+      <selection activeCell="L9" sqref="L9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1038,7 +1038,9 @@
         <v>6</v>
       </c>
       <c r="J4" s="3"/>
-      <c r="K4" s="1"/>
+      <c r="K4" s="1">
+        <v>10</v>
+      </c>
       <c r="L4" s="1"/>
       <c r="M4" s="1"/>
       <c r="N4" s="1"/>
@@ -1074,7 +1076,9 @@
         <v>9</v>
       </c>
       <c r="J5" s="3"/>
-      <c r="K5" s="1"/>
+      <c r="K5" s="1">
+        <v>10</v>
+      </c>
       <c r="L5" s="1"/>
       <c r="M5" s="1"/>
       <c r="N5" s="1"/>
@@ -1404,7 +1408,9 @@
         <v>14</v>
       </c>
       <c r="J15" s="38"/>
-      <c r="K15" s="1"/>
+      <c r="K15" s="1">
+        <v>10</v>
+      </c>
       <c r="L15" s="1"/>
       <c r="M15" s="1"/>
       <c r="N15" s="1"/>
